--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>871560.6023388768</v>
+        <v>828222.0780500975</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542677.888651096</v>
+        <v>6542677.888651093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9115966.500496672</v>
+        <v>9115966.500496676</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>185.7072044313842</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>107.297782492468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>11.09360025245302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.3455350572532</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>147.3437502321279</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>93.72050188838244</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.0086333161173</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.7390374476516</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7231387249903</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>88.72020872862697</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.5853523061922</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>48.7064585292927</v>
       </c>
       <c r="U6" t="n">
         <v>225.834778236355</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.725723654494151</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.3421560321368</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1412139758701</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2449309464601</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>205.6363210997933</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>165.0101484592483</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>72.43579197616315</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>55.94174219837174</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>135.443130798425</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1347,19 +1347,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>88.81976868471017</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188797</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>303.2272882132741</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>140.2114616303275</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.51626366671985</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>197.6863411814706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>145.2481701217143</v>
+        <v>200.1627776403513</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.23490948285971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>71.49367430371574</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>339.4113567275743</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>261.7337600035942</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>54.79134020098958</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.772870400866</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612763</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>176.8030671570835</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>141.4201311755197</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.9083821604492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>58.92805047991983</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>178.5643960972039</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491554</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>233.6294263886415</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>43.17365427545108</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>157.7822070347174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>168.1158122680957</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.83762944231071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>111.4702381038701</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>14.93663403485224</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>283.8333112081177</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>105.9626607935821</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>15.07437110675851</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>29.76460990121587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>164.0595157960434</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>43.54171107304242</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>77.31354443380407</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>10.88033756279872</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>114.5505532674845</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>57.02146927219706</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>75.32192060851541</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>300.8918795406378</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>225.7250450145772</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>85.65576091831451</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>179.9170634208425</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="C2" t="n">
-        <v>820.2300801016544</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672984</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4366,16 +4366,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>287.4747669672985</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4442,19 +4442,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>867.2724852268489</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110954</v>
+        <v>632.1203769951062</v>
       </c>
       <c r="W3" t="n">
-        <v>337.3302090828938</v>
+        <v>377.8830202669046</v>
       </c>
       <c r="X3" t="n">
-        <v>129.4787088773609</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.09711040012049</v>
+        <v>170.0315200613718</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>305.8038243349426</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>305.8038243349426</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>155.6871849226069</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>155.6871849226069</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>155.6871849226069</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>155.6871849226069</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>155.6871849226069</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>32.30276722078011</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>542.1592551731853</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>275.7815986060074</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>21.09711040012049</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W4" t="n">
-        <v>21.09711040012049</v>
+        <v>533.79337523296</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09711040012049</v>
+        <v>305.8038243349426</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>305.8038243349426</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>551.8353943754851</v>
+        <v>872.7619313231537</v>
       </c>
       <c r="C5" t="n">
-        <v>182.8728774350733</v>
+        <v>872.7619313231537</v>
       </c>
       <c r="D5" t="n">
-        <v>34.04080649352997</v>
+        <v>514.4962327164031</v>
       </c>
       <c r="E5" t="n">
-        <v>34.04080649352997</v>
+        <v>128.7079801181589</v>
       </c>
       <c r="F5" t="n">
-        <v>34.04080649352997</v>
+        <v>128.7079801181589</v>
       </c>
       <c r="G5" t="n">
-        <v>34.04080649352997</v>
+        <v>128.7079801181589</v>
       </c>
       <c r="H5" t="n">
-        <v>34.04080649352997</v>
+        <v>128.7079801181589</v>
       </c>
       <c r="I5" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="J5" t="n">
-        <v>109.273240123046</v>
+        <v>109.273240123047</v>
       </c>
       <c r="K5" t="n">
-        <v>272.7656743831088</v>
+        <v>272.7656743831111</v>
       </c>
       <c r="L5" t="n">
-        <v>512.4942579306198</v>
+        <v>512.4942579306237</v>
       </c>
       <c r="M5" t="n">
-        <v>810.9079353242604</v>
+        <v>810.9079353242657</v>
       </c>
       <c r="N5" t="n">
-        <v>1118.764066378857</v>
+        <v>1118.764066378865</v>
       </c>
       <c r="O5" t="n">
-        <v>1396.12861991417</v>
+        <v>1396.128619914179</v>
       </c>
       <c r="P5" t="n">
-        <v>1598.351848441864</v>
+        <v>1598.351848441875</v>
       </c>
       <c r="Q5" t="n">
-        <v>1702.040324676498</v>
+        <v>1702.04032467651</v>
       </c>
       <c r="R5" t="n">
-        <v>1702.040324676498</v>
+        <v>1702.04032467651</v>
       </c>
       <c r="S5" t="n">
-        <v>1702.040324676498</v>
+        <v>1560.617462741038</v>
       </c>
       <c r="T5" t="n">
-        <v>1702.040324676498</v>
+        <v>1560.617462741038</v>
       </c>
       <c r="U5" t="n">
-        <v>1702.040324676498</v>
+        <v>1560.617462741038</v>
       </c>
       <c r="V5" t="n">
-        <v>1702.040324676498</v>
+        <v>1560.617462741038</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.040324676498</v>
+        <v>1560.617462741038</v>
       </c>
       <c r="X5" t="n">
-        <v>1328.574566415419</v>
+        <v>1262.901263298965</v>
       </c>
       <c r="Y5" t="n">
-        <v>938.4352344396068</v>
+        <v>872.7619313231537</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568.9231231335875</v>
+        <v>208.4938357746572</v>
       </c>
       <c r="C6" t="n">
-        <v>568.9231231335875</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="D6" t="n">
-        <v>419.9887134723363</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="E6" t="n">
-        <v>260.7512584668808</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="F6" t="n">
-        <v>260.7512584668808</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="G6" t="n">
-        <v>123.6571789466885</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="H6" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="I6" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="J6" t="n">
-        <v>60.03088161251012</v>
+        <v>184.8610065995156</v>
       </c>
       <c r="K6" t="n">
-        <v>182.6068843540306</v>
+        <v>307.437009341037</v>
       </c>
       <c r="L6" t="n">
-        <v>393.7479880134348</v>
+        <v>518.5781130004424</v>
       </c>
       <c r="M6" t="n">
-        <v>659.496565273749</v>
+        <v>784.3266902607579</v>
       </c>
       <c r="N6" t="n">
-        <v>1080.751545631182</v>
+        <v>1205.581670618194</v>
       </c>
       <c r="O6" t="n">
-        <v>1321.255221730997</v>
+        <v>1446.08534671801</v>
       </c>
       <c r="P6" t="n">
-        <v>1635.407503828223</v>
+        <v>1619.777683723461</v>
       </c>
       <c r="Q6" t="n">
-        <v>1701.597034874752</v>
+        <v>1701.597034874763</v>
       </c>
       <c r="R6" t="n">
-        <v>1702.040324676498</v>
+        <v>1702.04032467651</v>
       </c>
       <c r="S6" t="n">
-        <v>1702.040324676498</v>
+        <v>1559.024817296518</v>
       </c>
       <c r="T6" t="n">
-        <v>1702.040324676498</v>
+        <v>1509.826374337636</v>
       </c>
       <c r="U6" t="n">
-        <v>1473.924387064018</v>
+        <v>1281.710436725156</v>
       </c>
       <c r="V6" t="n">
-        <v>1238.772278832276</v>
+        <v>1046.558328493414</v>
       </c>
       <c r="W6" t="n">
-        <v>984.5349221040742</v>
+        <v>792.320971765212</v>
       </c>
       <c r="X6" t="n">
-        <v>776.6834218985414</v>
+        <v>584.4694715596792</v>
       </c>
       <c r="Y6" t="n">
-        <v>568.9231231335875</v>
+        <v>376.7091727947252</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.04080649352997</v>
+        <v>35.78396170008995</v>
       </c>
       <c r="C7" t="n">
-        <v>34.04080649352997</v>
+        <v>35.78396170008995</v>
       </c>
       <c r="D7" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="E7" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="F7" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="G7" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="H7" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="I7" t="n">
-        <v>34.04080649352997</v>
+        <v>34.0408064935302</v>
       </c>
       <c r="J7" t="n">
-        <v>36.69866842157587</v>
+        <v>36.69866842157641</v>
       </c>
       <c r="K7" t="n">
-        <v>170.9031887458656</v>
+        <v>170.9031887458667</v>
       </c>
       <c r="L7" t="n">
-        <v>398.165204364746</v>
+        <v>398.1652043647478</v>
       </c>
       <c r="M7" t="n">
-        <v>648.170258443501</v>
+        <v>648.1702584435035</v>
       </c>
       <c r="N7" t="n">
-        <v>897.6653675468878</v>
+        <v>897.665367546891</v>
       </c>
       <c r="O7" t="n">
-        <v>1112.09818724296</v>
+        <v>1112.098187242965</v>
       </c>
       <c r="P7" t="n">
-        <v>1272.06182667838</v>
+        <v>1272.061826678385</v>
       </c>
       <c r="Q7" t="n">
-        <v>1299.377278900139</v>
+        <v>1299.377278900144</v>
       </c>
       <c r="R7" t="n">
-        <v>1299.377278900139</v>
+        <v>1299.377278900144</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.377278900139</v>
+        <v>1097.011464726268</v>
       </c>
       <c r="T7" t="n">
-        <v>1074.992214278048</v>
+        <v>1097.011464726268</v>
       </c>
       <c r="U7" t="n">
-        <v>785.8559203927343</v>
+        <v>807.8751708409548</v>
       </c>
       <c r="V7" t="n">
-        <v>531.1714321868475</v>
+        <v>553.1906826350679</v>
       </c>
       <c r="W7" t="n">
-        <v>241.7542621498869</v>
+        <v>263.7735125981073</v>
       </c>
       <c r="X7" t="n">
-        <v>34.04080649352997</v>
+        <v>35.78396170008995</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.04080649352997</v>
+        <v>35.78396170008995</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.071510755571</v>
+        <v>844.848651279277</v>
       </c>
       <c r="C8" t="n">
-        <v>1081.071510755571</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="D8" t="n">
-        <v>1081.071510755571</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E8" t="n">
-        <v>695.2832581573266</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F8" t="n">
-        <v>284.297353367719</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4801,7 +4801,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,10 +4810,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>918.016117921866</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>844.848651279277</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080695</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.137147448514</v>
+        <v>524.9806774183637</v>
       </c>
       <c r="C10" t="n">
-        <v>825.137147448514</v>
+        <v>356.0444944904568</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>356.0444944904568</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>356.0444944904568</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>825.137147448514</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W10" t="n">
-        <v>825.137147448514</v>
+        <v>927.4217213921336</v>
       </c>
       <c r="X10" t="n">
-        <v>825.137147448514</v>
+        <v>927.4217213921336</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.137147448514</v>
+        <v>706.6291422486034</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1237.689341379107</v>
+        <v>2047.772896771694</v>
       </c>
       <c r="C11" t="n">
-        <v>868.7268244386948</v>
+        <v>1678.810379831283</v>
       </c>
       <c r="D11" t="n">
-        <v>868.7268244386948</v>
+        <v>1320.544681224532</v>
       </c>
       <c r="E11" t="n">
-        <v>868.7268244386948</v>
+        <v>934.756428626288</v>
       </c>
       <c r="F11" t="n">
-        <v>779.009886373331</v>
+        <v>523.7705238366805</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9251676291959</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H11" t="n">
-        <v>66.21592154951941</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I11" t="n">
-        <v>66.21592154951941</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J11" t="n">
         <v>254.0744928369591</v>
       </c>
       <c r="K11" t="n">
-        <v>586.3643121319017</v>
+        <v>586.3643121319014</v>
       </c>
       <c r="L11" t="n">
         <v>1035.500977900981</v>
       </c>
       <c r="M11" t="n">
-        <v>1566.921495383895</v>
+        <v>1566.921495383894</v>
       </c>
       <c r="N11" t="n">
         <v>2111.55476080156</v>
@@ -5062,31 +5062,31 @@
         <v>3005.546484356407</v>
       </c>
       <c r="Q11" t="n">
-        <v>3252.534341412639</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R11" t="n">
-        <v>3310.79607747597</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S11" t="n">
         <v>3200.22583852823</v>
       </c>
       <c r="T11" t="n">
-        <v>2994.194385163528</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="U11" t="n">
-        <v>2740.662926950234</v>
+        <v>2740.662926950235</v>
       </c>
       <c r="V11" t="n">
-        <v>2740.662926950234</v>
+        <v>2740.662926950235</v>
       </c>
       <c r="W11" t="n">
-        <v>2387.89427168012</v>
+        <v>2740.662926950235</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.42851341904</v>
+        <v>2740.662926950235</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.289181443228</v>
+        <v>2434.372736835816</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>302.156148393341</v>
       </c>
       <c r="G12" t="n">
-        <v>165.7864839520669</v>
+        <v>165.7864839520666</v>
       </c>
       <c r="H12" t="n">
-        <v>75.22119252365769</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I12" t="n">
-        <v>66.21592154951941</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J12" t="n">
         <v>159.2853526912741</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.53741610928</v>
+        <v>672.5585873723027</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6012331813729</v>
+        <v>530.9308483517698</v>
       </c>
       <c r="D13" t="n">
-        <v>772.4845937690371</v>
+        <v>380.814208939434</v>
       </c>
       <c r="E13" t="n">
-        <v>624.571500186644</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F13" t="n">
-        <v>477.6815526887336</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G13" t="n">
-        <v>309.9732127967294</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H13" t="n">
-        <v>163.7070969704486</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I13" t="n">
-        <v>66.21592154951941</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J13" t="n">
         <v>110.9572157501788</v>
@@ -5229,22 +5229,22 @@
         <v>1921.651183891643</v>
       </c>
       <c r="T13" t="n">
-        <v>1921.651183891643</v>
+        <v>1699.861054503352</v>
       </c>
       <c r="U13" t="n">
-        <v>1921.651183891643</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V13" t="n">
-        <v>1921.651183891643</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="W13" t="n">
-        <v>1721.968010981067</v>
+        <v>1121.34071741385</v>
       </c>
       <c r="X13" t="n">
-        <v>1493.978460083049</v>
+        <v>893.3511665158328</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.185880939519</v>
+        <v>672.5585873723027</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796261</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392144</v>
+        <v>1111.554341825105</v>
       </c>
       <c r="D14" t="n">
-        <v>406.0926155839475</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="C16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="D16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="E16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="F16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>284.9451358443415</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>138.7279490621993</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696226</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1976.204921733553</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W17" t="n">
-        <v>2366.344253709365</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X17" t="n">
-        <v>2366.344253709365</v>
+        <v>2621.077176004519</v>
       </c>
       <c r="Y17" t="n">
-        <v>1976.204921733553</v>
+        <v>2230.937844028707</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5582,7 +5582,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5591,37 +5591,37 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>725.9304417640988</v>
+        <v>271.9735439263268</v>
       </c>
       <c r="C19" t="n">
-        <v>556.9942588361919</v>
+        <v>271.9735439263268</v>
       </c>
       <c r="D19" t="n">
-        <v>406.8776194238561</v>
+        <v>121.8569045139911</v>
       </c>
       <c r="E19" t="n">
-        <v>258.964525841463</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>258.964525841463</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5679,46 +5679,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="U19" t="n">
-        <v>1645.778206672847</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V19" t="n">
-        <v>1645.778206672847</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W19" t="n">
-        <v>1356.361036635886</v>
+        <v>902.404138798114</v>
       </c>
       <c r="X19" t="n">
-        <v>1128.371485737869</v>
+        <v>674.4145879000966</v>
       </c>
       <c r="Y19" t="n">
-        <v>907.5789065943385</v>
+        <v>453.6220087565665</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796247</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C20" t="n">
-        <v>552.807938939213</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324625</v>
+        <v>584.6815723082743</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218339</v>
+        <v>584.6815723082743</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218339</v>
@@ -5755,7 +5755,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329463</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052367</v>
@@ -5797,7 +5797,7 @@
         <v>1698.509627919558</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943746</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,7 +5846,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
         <v>2407.41198488674</v>
@@ -5855,28 +5855,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1612.736483535254</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C22" t="n">
-        <v>1612.736483535254</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
-        <v>1612.736483535254</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.82338995286</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.82338995286</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.82338995286</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396717</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.32286476305</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888693</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682807</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645846</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.128788747829</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y22" t="n">
-        <v>1612.736483535254</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
         <v>481.5845665871869</v>
@@ -5995,13 +5995,13 @@
         <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136265</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1640.204086189705</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C25" t="n">
-        <v>1471.267903261798</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>3103.839206178696</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>2814.736339304339</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>2560.051851098453</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>2270.634681061492</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>2042.645130163475</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>1821.852551019944</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D26" t="n">
         <v>1278.358723975039</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2788.565186649822</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2435.796531379708</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X26" t="n">
-        <v>2435.796531379708</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
@@ -6323,34 +6323,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2246.382089998688</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>2077.445907070781</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>1927.329267658446</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>1779.416174076053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>1632.526226578142</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V28" t="n">
-        <v>3166.229854907436</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W28" t="n">
-        <v>2876.812684870475</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X28" t="n">
-        <v>2648.823133972458</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y28" t="n">
-        <v>2428.030554828928</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2175.400891308156</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C29" t="n">
-        <v>1806.438374367744</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D29" t="n">
-        <v>1448.172675760994</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.38442316275</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>651.3985183731422</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>236.3260682181387</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6478,37 +6478,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X29" t="n">
-        <v>2952.14006334809</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.000731372278</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6560,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1837.46409084602</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U31" t="n">
-        <v>1837.46409084602</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.779602640133</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.779602640133</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1605.601998493311</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C32" t="n">
-        <v>1236.639481552899</v>
+        <v>1703.012869240228</v>
       </c>
       <c r="D32" t="n">
-        <v>878.3737829461486</v>
+        <v>1344.747170633478</v>
       </c>
       <c r="E32" t="n">
-        <v>492.5855303479044</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>81.59962555829679</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>81.59962555829679</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>81.59962555829679</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>2382.341170533244</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y32" t="n">
-        <v>1992.201838557432</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
@@ -6776,49 +6776,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682808</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645847</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>1761.12878874783</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>1540.336209604299</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1274.245689520978</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C35" t="n">
-        <v>905.2831725805665</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D35" t="n">
-        <v>905.2831725805665</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E35" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6943,13 +6943,13 @@
         <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939507</v>
@@ -6970,19 +6970,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3108.282162435677</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2777.219275092106</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.450619821991</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2050.984861560912</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y35" t="n">
-        <v>1660.8455295851</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2489.924953962484</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034577</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622241</v>
+        <v>81.73875391375765</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039848</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916657</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.60582160917</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.60582160917</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W37" t="n">
-        <v>3120.355548834271</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X37" t="n">
-        <v>2892.365997936254</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y37" t="n">
-        <v>2671.573418792724</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1964.273285499503</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C38" t="n">
-        <v>1964.273285499503</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>1606.007586892752</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>1220.219334294508</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>809.2334295049004</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>394.1609793498969</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>96.5773789586641</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7177,13 +7177,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7207,19 +7207,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>3159.889138986905</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539436</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="W38" t="n">
-        <v>2741.012457539436</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X38" t="n">
-        <v>2741.012457539436</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y38" t="n">
-        <v>2350.873125563624</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.5649387724261</v>
+        <v>278.196479393871</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445192</v>
+        <v>278.196479393871</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1849.200058761417</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1560.097191887061</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>1305.412703681174</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W40" t="n">
-        <v>1015.995533644213</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X40" t="n">
-        <v>788.005982746196</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026658</v>
+        <v>459.8449442241107</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.52858457759</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C41" t="n">
-        <v>810.5660676371781</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D41" t="n">
-        <v>452.3003690304276</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218342</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7414,16 +7414,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7450,13 +7450,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X41" t="n">
-        <v>1956.267756617523</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y41" t="n">
-        <v>1566.128424641711</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="42">
@@ -7508,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.59460854119</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.59460854119</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.71928130825</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1506.363819949359</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C44" t="n">
-        <v>1506.363819949359</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="D44" t="n">
-        <v>1506.363819949359</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>1120.575567351115</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F44" t="n">
-        <v>709.5896625615073</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G44" t="n">
-        <v>294.5172124065038</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W44" t="n">
-        <v>2656.568750250372</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X44" t="n">
-        <v>2283.102991989293</v>
+        <v>2698.609586621926</v>
       </c>
       <c r="Y44" t="n">
-        <v>1892.963660013481</v>
+        <v>2308.470254646114</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>469.8823635670435</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C46" t="n">
-        <v>300.9461806391366</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D46" t="n">
-        <v>300.9461806391366</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>153.0330870567435</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>153.0330870567435</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218339</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783661</v>
+        <v>1332.107640989043</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577774</v>
+        <v>1077.423152783156</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408134</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="X46" t="n">
-        <v>872.3234075408134</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y46" t="n">
-        <v>651.5308283972832</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.34792361321439</v>
+        <v>25.34792361321374</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>135.418367778649</v>
+        <v>135.4183677786505</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>141.8787324159354</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15.7876970755277</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.4490126143849</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>132.9937062656811</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
         <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -22606,13 +22606,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>116.9617832120864</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22643,10 +22643,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -22682,7 +22682,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>40.14728307217047</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>98.38491328483634</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22725,10 +22725,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>3.978598846429062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>47.86881082231267</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>207.339291388555</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22801,10 +22801,10 @@
         <v>412.2742597852337</v>
       </c>
       <c r="H5" t="n">
-        <v>308.4594045644146</v>
+        <v>308.4594045644145</v>
       </c>
       <c r="I5" t="n">
-        <v>93.72050188838284</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.0086333161176</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.838688301488</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>74.99206323081739</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7231387249903</v>
       </c>
       <c r="H6" t="n">
-        <v>7.865791117688758</v>
+        <v>96.58599984631567</v>
       </c>
       <c r="I6" t="n">
-        <v>33.60728750040747</v>
+        <v>33.60728750040727</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.5853523061923</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6334664811177</v>
+        <v>144.9270079518249</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8897493637182</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22962,7 +22962,7 @@
         <v>150.1491316724218</v>
       </c>
       <c r="I7" t="n">
-        <v>114.5975515302861</v>
+        <v>114.597551530286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.2116020417934</v>
+        <v>116.2116020417932</v>
       </c>
       <c r="S7" t="n">
-        <v>200.3421560321368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1412139758701</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>20.07333428924383</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>246.5375543137057</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>313.8021466798904</v>
       </c>
     </row>
     <row r="9">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>92.67373081984061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9.977917224506257</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318.0562770570012</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759564</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>83.01065044277954</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.0353594683003</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>88.83665715512043</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>209.4348714989687</v>
+        <v>154.5202639803317</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>24.85874610612238</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>43.32248493590623</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>87.50720871381878</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>91.64262244557959</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2529378581622</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>255.1805474109854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>230.072978584628</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>110.7175121483083</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.67627119164564</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>290.3129182374932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>207.6735425588496</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>142.2354048423642</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>121.0536152320415</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.0642843806025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,16 +24651,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.35543628911057</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>126.4919521192247</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>137.8720259467264</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>270.4601319683917</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>26.64029573807374</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>98.90053045536291</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>145.0325111653198</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>131.3595915398107</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>11.81231987171011</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>86.93565616285861</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>105.0737619451699</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>142.2354048423651</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>354.3925542082088</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1805474109845</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>91.59400374601529</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>150.3877347805217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>53.79116208004518</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>68.88271937274334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>80.37004734071371</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>106.2947747847704</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>618878.437600086</v>
+        <v>618878.4376000878</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840611.6858331339</v>
+        <v>840611.685833134</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842152.2760938914</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842152.2760938914</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842152.2760938916</v>
+        <v>842152.2760938914</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842152.2760938917</v>
+        <v>842152.2760938914</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842152.2760938915</v>
+        <v>842152.2760938916</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842152.2760938914</v>
+        <v>842152.2760938916</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842152.2760938914</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>214164.9102569681</v>
       </c>
       <c r="C2" t="n">
-        <v>260456.5949430151</v>
+        <v>260456.594943016</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.2120190238</v>
+        <v>321270.212019024</v>
       </c>
       <c r="E2" t="n">
         <v>357333.3707313609</v>
       </c>
       <c r="F2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
         <v>358046.9539194665</v>
       </c>
       <c r="I2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="J2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="J2" t="n">
-        <v>358046.9539194666</v>
-      </c>
       <c r="K2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="M2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="O2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="P2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="O2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194665</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>179099.1831585621</v>
+        <v>179099.1831585653</v>
       </c>
       <c r="D3" t="n">
-        <v>221589.2771638993</v>
+        <v>221589.2771638963</v>
       </c>
       <c r="E3" t="n">
-        <v>178540.1976648847</v>
+        <v>178540.1976648846</v>
       </c>
       <c r="F3" t="n">
-        <v>3449.010472953505</v>
+        <v>3449.010472953016</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
-        <v>41641.16470210755</v>
+        <v>41641.16470210834</v>
       </c>
       <c r="L3" t="n">
-        <v>54433.48378785605</v>
+        <v>54433.48378785537</v>
       </c>
       <c r="M3" t="n">
-        <v>46629.60392417232</v>
+        <v>46629.60392417224</v>
       </c>
       <c r="N3" t="n">
-        <v>906.8265503281639</v>
+        <v>906.8265503280525</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>10070.37597634434</v>
       </c>
       <c r="C4" t="n">
-        <v>11500.72215207437</v>
+        <v>11500.72215207438</v>
       </c>
       <c r="D4" t="n">
-        <v>13767.31913011279</v>
+        <v>13767.3191301128</v>
       </c>
       <c r="E4" t="n">
         <v>7452.481782990988</v>
       </c>
       <c r="F4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042261</v>
       </c>
       <c r="G4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042261</v>
       </c>
       <c r="H4" t="n">
-        <v>7330.627242042257</v>
+        <v>7330.627242042261</v>
       </c>
       <c r="I4" t="n">
         <v>7330.627242042257</v>
       </c>
       <c r="J4" t="n">
-        <v>7330.627242042258</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="K4" t="n">
+        <v>7330.627242042256</v>
+      </c>
+      <c r="L4" t="n">
         <v>7330.627242042245</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7330.627242042256</v>
       </c>
       <c r="M4" t="n">
         <v>7330.627242042256</v>
@@ -26456,10 +26456,10 @@
         <v>7330.627242042245</v>
       </c>
       <c r="O4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042256</v>
       </c>
       <c r="P4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042261</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75921.2905449055</v>
+        <v>75921.29054490573</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>74015.3682537726</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139327</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539041.2495148355</v>
+        <v>-549368.9647015871</v>
       </c>
       <c r="C6" t="n">
-        <v>-6064.600912526861</v>
+        <v>-14187.95016185009</v>
       </c>
       <c r="D6" t="n">
-        <v>-7024.156714832934</v>
+        <v>-12251.61943672147</v>
       </c>
       <c r="E6" t="n">
-        <v>97325.32302971256</v>
+        <v>93815.15357983712</v>
       </c>
       <c r="F6" t="n">
-        <v>272960.9756430774</v>
+        <v>269484.786345017</v>
       </c>
       <c r="G6" t="n">
-        <v>276409.9861160312</v>
+        <v>272933.7968179701</v>
       </c>
       <c r="H6" t="n">
-        <v>276409.986116031</v>
+        <v>272933.7968179699</v>
       </c>
       <c r="I6" t="n">
-        <v>276409.986116031</v>
+        <v>272933.7968179699</v>
       </c>
       <c r="J6" t="n">
-        <v>207410.8316969169</v>
+        <v>203934.6423988558</v>
       </c>
       <c r="K6" t="n">
-        <v>234768.8214139236</v>
+        <v>231292.6321158617</v>
       </c>
       <c r="L6" t="n">
-        <v>221976.502328175</v>
+        <v>218500.3130301144</v>
       </c>
       <c r="M6" t="n">
-        <v>229780.3821918587</v>
+        <v>226304.1928937978</v>
       </c>
       <c r="N6" t="n">
-        <v>275503.1595657029</v>
+        <v>272026.9702676419</v>
       </c>
       <c r="O6" t="n">
-        <v>276409.9861160311</v>
+        <v>272933.7968179701</v>
       </c>
       <c r="P6" t="n">
-        <v>276409.9861160311</v>
+        <v>272933.79681797</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>753.3338353129689</v>
+        <v>753.3338353129715</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1086.755407162286</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>425.5100811691246</v>
+        <v>425.5100811691275</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>827.6990193689926</v>
+        <v>827.6990193689927</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022924</v>
@@ -26816,10 +26816,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022924</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>139.2788215434906</v>
+        <v>139.2788215434931</v>
       </c>
       <c r="D3" t="n">
-        <v>180.7310568045705</v>
+        <v>180.731056804568</v>
       </c>
       <c r="E3" t="n">
-        <v>152.6905150447471</v>
+        <v>152.690515044747</v>
       </c>
       <c r="F3" t="n">
-        <v>3.021293431011827</v>
+        <v>3.021293431011372</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7962011676184</v>
+        <v>161.7962011676212</v>
       </c>
       <c r="D4" t="n">
-        <v>215.0747509309141</v>
+        <v>215.0747509309115</v>
       </c>
       <c r="E4" t="n">
-        <v>187.1141872689539</v>
+        <v>187.1141872689537</v>
       </c>
       <c r="F4" t="n">
-        <v>3.70243603330016</v>
+        <v>3.702436033299705</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27038,16 +27038,16 @@
         <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7962011676182</v>
+        <v>161.7962011676212</v>
       </c>
       <c r="L4" t="n">
-        <v>215.0747509309144</v>
+        <v>215.0747509309117</v>
       </c>
       <c r="M4" t="n">
-        <v>187.1141872689536</v>
+        <v>187.1141872689533</v>
       </c>
       <c r="N4" t="n">
-        <v>3.702436033300387</v>
+        <v>3.702436033299932</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7962011676184</v>
+        <v>161.7962011676212</v>
       </c>
       <c r="L4" t="n">
-        <v>215.0747509309141</v>
+        <v>215.0747509309115</v>
       </c>
       <c r="M4" t="n">
-        <v>187.1141872689539</v>
+        <v>187.1141872689537</v>
       </c>
       <c r="N4" t="n">
-        <v>3.70243603330016</v>
+        <v>3.702436033299705</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.02847772990138</v>
+        <v>3.028477729901391</v>
       </c>
       <c r="H5" t="n">
-        <v>31.01539755135252</v>
+        <v>31.01539755135262</v>
       </c>
       <c r="I5" t="n">
-        <v>116.7553876820231</v>
+        <v>116.7553876820235</v>
       </c>
       <c r="J5" t="n">
-        <v>257.0382617282175</v>
+        <v>257.0382617282184</v>
       </c>
       <c r="K5" t="n">
-        <v>385.233724034943</v>
+        <v>385.2337240349443</v>
       </c>
       <c r="L5" t="n">
-        <v>477.9164993614124</v>
+        <v>477.9164993614141</v>
       </c>
       <c r="M5" t="n">
-        <v>531.7741901905461</v>
+        <v>531.774190190548</v>
       </c>
       <c r="N5" t="n">
-        <v>540.3788525406285</v>
+        <v>540.3788525406303</v>
       </c>
       <c r="O5" t="n">
-        <v>510.2644271139216</v>
+        <v>510.2644271139233</v>
       </c>
       <c r="P5" t="n">
-        <v>435.4988831569812</v>
+        <v>435.4988831569827</v>
       </c>
       <c r="Q5" t="n">
-        <v>327.0415244548879</v>
+        <v>327.041524454889</v>
       </c>
       <c r="R5" t="n">
-        <v>190.2376142009177</v>
+        <v>190.2376142009184</v>
       </c>
       <c r="S5" t="n">
-        <v>69.01143627012777</v>
+        <v>69.011436270128</v>
       </c>
       <c r="T5" t="n">
-        <v>13.2571612626433</v>
+        <v>13.25716126264334</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2422782183921104</v>
+        <v>0.2422782183921112</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.620378438220348</v>
+        <v>1.620378438220354</v>
       </c>
       <c r="H6" t="n">
-        <v>15.64944439018073</v>
+        <v>15.64944439018079</v>
       </c>
       <c r="I6" t="n">
-        <v>55.78934535100761</v>
+        <v>55.7893453510078</v>
       </c>
       <c r="J6" t="n">
-        <v>153.0902277969497</v>
+        <v>153.0902277969502</v>
       </c>
       <c r="K6" t="n">
-        <v>261.655583157713</v>
+        <v>261.6555831577139</v>
       </c>
       <c r="L6" t="n">
-        <v>351.8282218600805</v>
+        <v>351.8282218600817</v>
       </c>
       <c r="M6" t="n">
-        <v>410.566940245568</v>
+        <v>410.5669402455694</v>
       </c>
       <c r="N6" t="n">
-        <v>421.4334254738089</v>
+        <v>421.4334254738104</v>
       </c>
       <c r="O6" t="n">
-        <v>385.5292506058738</v>
+        <v>385.5292506058751</v>
       </c>
       <c r="P6" t="n">
-        <v>309.42121247034</v>
+        <v>309.4212124703411</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.8398862542325</v>
+        <v>206.8398862542332</v>
       </c>
       <c r="R6" t="n">
-        <v>100.6056016291546</v>
+        <v>100.605601629155</v>
       </c>
       <c r="S6" t="n">
-        <v>30.09781879764548</v>
+        <v>30.09781879764559</v>
       </c>
       <c r="T6" t="n">
-        <v>6.531262213703945</v>
+        <v>6.531262213703967</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1066038446197598</v>
+        <v>0.1066038446197602</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35847085056437</v>
+        <v>1.358470850564375</v>
       </c>
       <c r="H7" t="n">
-        <v>12.07804083501777</v>
+        <v>12.07804083501781</v>
       </c>
       <c r="I7" t="n">
-        <v>40.85292339697216</v>
+        <v>40.85292339697229</v>
       </c>
       <c r="J7" t="n">
-        <v>96.04388913490095</v>
+        <v>96.04388913490128</v>
       </c>
       <c r="K7" t="n">
-        <v>157.8296133655695</v>
+        <v>157.82961336557</v>
       </c>
       <c r="L7" t="n">
-        <v>201.9675662739064</v>
+        <v>201.9675662739072</v>
       </c>
       <c r="M7" t="n">
-        <v>212.9464806934675</v>
+        <v>212.9464806934683</v>
       </c>
       <c r="N7" t="n">
-        <v>207.8830893413641</v>
+        <v>207.8830893413649</v>
       </c>
       <c r="O7" t="n">
-        <v>192.0136798597712</v>
+        <v>192.0136798597719</v>
       </c>
       <c r="P7" t="n">
-        <v>164.3008745082579</v>
+        <v>164.3008745082585</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.7534091322583</v>
+        <v>113.7534091322587</v>
       </c>
       <c r="R7" t="n">
-        <v>61.08178933537611</v>
+        <v>61.08178933537632</v>
       </c>
       <c r="S7" t="n">
-        <v>23.67444200483542</v>
+        <v>23.6744420048355</v>
       </c>
       <c r="T7" t="n">
-        <v>5.804375452411398</v>
+        <v>5.804375452411417</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07409841003078389</v>
+        <v>0.07409841003078416</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32344,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32393,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32411,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -33043,7 +33043,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33280,7 +33280,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33988,7 +33988,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34228,7 +34228,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233473</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.99235720153121</v>
+        <v>75.99235720153212</v>
       </c>
       <c r="K5" t="n">
-        <v>165.1438729899625</v>
+        <v>165.1438729899638</v>
       </c>
       <c r="L5" t="n">
-        <v>242.1500843914252</v>
+        <v>242.1500843914268</v>
       </c>
       <c r="M5" t="n">
-        <v>301.4279569632733</v>
+        <v>301.4279569632753</v>
       </c>
       <c r="N5" t="n">
-        <v>310.9657889440376</v>
+        <v>310.9657889440394</v>
       </c>
       <c r="O5" t="n">
-        <v>280.1662156922348</v>
+        <v>280.1662156922366</v>
       </c>
       <c r="P5" t="n">
-        <v>204.2658874017116</v>
+        <v>204.2658874017131</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.7358345804384</v>
+        <v>104.7358345804396</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>26.25260113028298</v>
+        <v>152.3436364706923</v>
       </c>
       <c r="K6" t="n">
-        <v>123.814144183354</v>
+        <v>123.8141441833549</v>
       </c>
       <c r="L6" t="n">
-        <v>213.2738420802063</v>
+        <v>213.2738420802075</v>
       </c>
       <c r="M6" t="n">
-        <v>268.4329063235497</v>
+        <v>268.4329063235511</v>
       </c>
       <c r="N6" t="n">
-        <v>425.5100811691246</v>
+        <v>425.5100811691275</v>
       </c>
       <c r="O6" t="n">
-        <v>242.9330061614294</v>
+        <v>242.9330061614307</v>
       </c>
       <c r="P6" t="n">
-        <v>317.3255374719452</v>
+        <v>175.4468050560109</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.85811216821102</v>
+        <v>82.64580924373944</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4477674765115012</v>
+        <v>0.4477674765118564</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.684709018228176</v>
+        <v>2.684709018228503</v>
       </c>
       <c r="K7" t="n">
-        <v>135.5601215396866</v>
+        <v>135.5601215396872</v>
       </c>
       <c r="L7" t="n">
-        <v>229.5575915342226</v>
+        <v>229.5575915342233</v>
       </c>
       <c r="M7" t="n">
-        <v>252.5303576553081</v>
+        <v>252.5303576553088</v>
       </c>
       <c r="N7" t="n">
-        <v>252.0152617205927</v>
+        <v>252.0152617205935</v>
       </c>
       <c r="O7" t="n">
-        <v>216.5988077738109</v>
+        <v>216.5988077738115</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5794337731514</v>
+        <v>161.579433773152</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.59136588056391</v>
+        <v>27.59136588056431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>466.4238188159146</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35269,13 +35269,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.9297349452394</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37636,7 +37636,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
         <v>451.794267901329</v>
